--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-MediaObservation.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-MediaObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:59:53+00:00</t>
+    <t>2024-05-29T06:58:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This AT IPS profile for the MediaObservation resource is derived from the general MediaObservation resource in absence of a corresponding profile in the HL7® Austria FHIR® Core Implementation Guide and also ensures IPS conformity via the IPS profile referenced by the so-called imposeProfile extension.</t>
+    <t>This AT IPS profile for the Media resource is derived from the general Media resource in absence of a corresponding profile in the HL7® Austria FHIR® Core implementation guide and also ensures IPS conformity via the IPS profile referenced by the so-called [`imposeProfile`](http://hl7.org/fhir/StructureDefinition/structuredefinition-imposeProfile) extension.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-MediaObservation.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-MediaObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T06:58:17+00:00</t>
+    <t>2024-05-29T12:02:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-MediaObservation.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-MediaObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T12:02:27+00:00</t>
+    <t>2024-06-19T12:04:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-MediaObservation.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-MediaObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:04:55+00:00</t>
+    <t>2024-10-16T10:23:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
